--- a/epplus_testWPF/test.xlsx
+++ b/epplus_testWPF/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\_C#\epplus_testWPF\epplus_testWPF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F8986F1-30B1-4DA5-A3A9-716AE62E235D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BCF3A17-B328-48F2-A48B-559B139C2E7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="5985" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>wann</t>
     <phoneticPr fontId="1"/>
@@ -117,36 +117,136 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>背景白</t>
-    <rPh sb="0" eb="3">
-      <t>ハイケイシロ</t>
+    <t>項目</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>黒色</t>
+    <t>りんご</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>みかん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>じゅーす　</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バナナ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボンタン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>値1</t>
     <rPh sb="0" eb="1">
-      <t>クロイロ</t>
+      <t>アタイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>77 88 77</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>一部緑</t>
-    <rPh sb="0" eb="2">
-      <t>イチブ</t>
+    <t>値2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>値3</t>
+    <rPh sb="0" eb="1">
+      <t>アタイ</t>
     </rPh>
-    <rPh sb="2" eb="3">
-      <t>ミドリ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>くり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>△△</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>◇◇◇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>スーパ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>□</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>□</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>□</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>食べる</t>
+    <rPh sb="0" eb="1">
+      <t>タ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <t>あ</t>
+    <t>混ぜる</t>
+    <rPh sb="0" eb="1">
+      <t>マ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ならない</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>△</t>
     </r>
     <r>
       <rPr>
@@ -157,17 +257,13 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>いう</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>え</t>
+      <t>■</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>混ぜ</t>
     </r>
     <r>
       <rPr>
@@ -178,157 +274,94 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>お</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>数値全部赤</t>
-    <rPh sb="0" eb="2">
-      <t>スウチ</t>
+      <t>ない</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>マ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>食べ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ない</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーマカラー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スーパ□□□</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>〇〇</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>商店</t>
+    </r>
     <rPh sb="2" eb="4">
-      <t>ゼンブ</t>
+      <t>ショウテン</t>
     </rPh>
-    <rPh sb="4" eb="5">
-      <t>アカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>背景のみ</t>
-    <rPh sb="0" eb="2">
-      <t>ハイケイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>文字列全部赤</t>
-    <rPh sb="0" eb="3">
-      <t>モジレツ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ゼンブ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>アカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>かきくけこ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>二か所色</t>
-    <rPh sb="0" eb="1">
-      <t>ニ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ショ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>イロ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>数値一部</t>
-    <rPh sb="0" eb="2">
-      <t>スウチ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>イチブ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>55　</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="7" tint="0.59999389629810485"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>6　</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="7" tint="0.59999389629810485"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>23</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>一</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>部</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>分</t>
-    </r>
-    <rPh sb="0" eb="3">
-      <t>イチブブン</t>
-    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>な</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="0.79998168889431442"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>らな</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>い</t>
+    </r>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -336,7 +369,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -368,7 +401,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="7" tint="0.59999389629810485"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
@@ -378,31 +426,31 @@
       <sz val="11"/>
       <color rgb="FF0070C0"/>
       <name val="Yu Gothic"/>
-      <family val="3"/>
-      <charset val="128"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF00B050"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5" tint="0.79998168889431442"/>
       <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -412,25 +460,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF778877"/>
+        <fgColor theme="3"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor rgb="FF0070C0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -447,17 +495,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -744,72 +797,129 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:C8"/>
+  <dimension ref="C3:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3">
-      <c r="B2" t="s">
+    <row r="3" spans="3:6">
+      <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="3:6" s="8" customFormat="1">
+      <c r="C4" s="8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="2:3">
-      <c r="B3" s="1" t="s">
+      <c r="D4" s="8">
+        <v>123</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="3:6" s="9" customFormat="1">
+      <c r="C5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="9">
+        <v>2</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6">
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="4">
+        <v>5</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6" s="9" customFormat="1">
+      <c r="C7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="9">
+        <v>6</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6">
+      <c r="C8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="2">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3">
-      <c r="B4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3">
-      <c r="B5" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3">
-      <c r="B6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3">
-      <c r="B7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="7" t="s">
+      <c r="D8" s="3">
+        <v>89</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="2:3">
-      <c r="B8" s="6" t="s">
+      <c r="F8" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6" s="11" customFormat="1">
+      <c r="C9" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>12</v>
+      <c r="D9" s="11">
+        <v>84</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="3:6" s="5" customFormat="1">
+      <c r="C10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="6">
+        <v>99</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -837,18 +947,18 @@
       </c>
     </row>
     <row r="4" spans="2:3">
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="2:3">
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
